--- a/temp.xlsx
+++ b/temp.xlsx
@@ -127,7 +127,7 @@
     <t>A data scientist uses data to understand and explain the phenomena around them, and help organizations make better decisions.</t>
   </si>
   <si>
-    <t>Data scientists typically need at least a bachelor's degree in mathematics, statistics, computer science, or a related field to enter the occupation. Some ...</t>
+    <t>Data scientists use analytical tools and techniques to extract meaningful insights from data.</t>
   </si>
   <si>
     <t>They design data modeling processes, create algorithms and predictive models to extract the data the business needs, and help analyze the data and share ...</t>
